--- a/test-hardware/hardware-design/Power-Control-V1-Layer/20230827-JLCPCB-Power-Control-Layer-V1.xlsx
+++ b/test-hardware/hardware-design/Power-Control-V1-Layer/20230827-JLCPCB-Power-Control-Layer-V1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parke\Documents\GitHub\Electrical_mCLARI\test-hardware\hardware-design\Power-Control-V1-Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24085D0F-2E61-4983-8AF0-523049A10B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9608298-73F8-4A76-942C-797EA130A562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{4F7B1968-2BA9-41DF-9A21-FD65AD0B0832}"/>
+    <workbookView xWindow="4290" yWindow="480" windowWidth="25650" windowHeight="20505" xr2:uid="{4F7B1968-2BA9-41DF-9A21-FD65AD0B0832}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1279,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6A6033-B17C-45EF-8601-3744D1431AC5}">
   <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
